--- a/Code/Results/Cases/Case_3_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9890924655319561</v>
+        <v>1.01829118917108</v>
       </c>
       <c r="D2">
-        <v>1.009724074787397</v>
+        <v>1.023985953754433</v>
       </c>
       <c r="E2">
-        <v>0.9971138986986611</v>
+        <v>1.019583685794839</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041451126672861</v>
+        <v>1.027341434458993</v>
       </c>
       <c r="J2">
-        <v>1.011604386559306</v>
+        <v>1.023500457630093</v>
       </c>
       <c r="K2">
-        <v>1.02104957992033</v>
+        <v>1.026815782312966</v>
       </c>
       <c r="L2">
-        <v>1.008613588476413</v>
+        <v>1.022426501826416</v>
       </c>
       <c r="N2">
-        <v>1.013040980820865</v>
+        <v>1.024953945677072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9935700680005679</v>
+        <v>1.01921308746259</v>
       </c>
       <c r="D3">
-        <v>1.013043998005776</v>
+        <v>1.024666311906729</v>
       </c>
       <c r="E3">
-        <v>1.000662138178497</v>
+        <v>1.020363800528458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042635244484929</v>
+        <v>1.027486096304845</v>
       </c>
       <c r="J3">
-        <v>1.014237567563626</v>
+        <v>1.024058758255928</v>
       </c>
       <c r="K3">
-        <v>1.023512655175789</v>
+        <v>1.027303480658399</v>
       </c>
       <c r="L3">
-        <v>1.011286553828002</v>
+        <v>1.023012744025828</v>
       </c>
       <c r="N3">
-        <v>1.015677901244242</v>
+        <v>1.025513039153833</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9964035148696713</v>
+        <v>1.019809471143432</v>
       </c>
       <c r="D4">
-        <v>1.015143220765229</v>
+        <v>1.025105815754036</v>
       </c>
       <c r="E4">
-        <v>1.002913692049866</v>
+        <v>1.020868883288441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043367879690308</v>
+        <v>1.027577567650423</v>
       </c>
       <c r="J4">
-        <v>1.015899668683478</v>
+        <v>1.024419280685079</v>
       </c>
       <c r="K4">
-        <v>1.025062252438575</v>
+        <v>1.027617646555353</v>
       </c>
       <c r="L4">
-        <v>1.01297707811967</v>
+        <v>1.023391725065711</v>
       </c>
       <c r="N4">
-        <v>1.017342362738329</v>
+        <v>1.025874073566186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9975799357777984</v>
+        <v>1.020060154882545</v>
       </c>
       <c r="D5">
-        <v>1.016014337135905</v>
+        <v>1.025290406023527</v>
       </c>
       <c r="E5">
-        <v>1.003849961949493</v>
+        <v>1.021081289651895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043667994277877</v>
+        <v>1.027615510338181</v>
       </c>
       <c r="J5">
-        <v>1.016588711729432</v>
+        <v>1.024570667198113</v>
       </c>
       <c r="K5">
-        <v>1.025703397393635</v>
+        <v>1.027749383663829</v>
       </c>
       <c r="L5">
-        <v>1.013678702501784</v>
+        <v>1.023550962170415</v>
       </c>
       <c r="N5">
-        <v>1.018032384304443</v>
+        <v>1.026025675065433</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.997776611329095</v>
+        <v>1.020102243648351</v>
       </c>
       <c r="D6">
-        <v>1.016159942404866</v>
+        <v>1.025321389107824</v>
       </c>
       <c r="E6">
-        <v>1.004006572466954</v>
+        <v>1.021116957654372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043717926674133</v>
+        <v>1.02762185104137</v>
       </c>
       <c r="J6">
-        <v>1.016703844149464</v>
+        <v>1.024596075242659</v>
       </c>
       <c r="K6">
-        <v>1.02581045171192</v>
+        <v>1.02777148303271</v>
       </c>
       <c r="L6">
-        <v>1.013795984199086</v>
+        <v>1.023577693675258</v>
       </c>
       <c r="N6">
-        <v>1.018147680225717</v>
+        <v>1.026051119192316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9964192915809836</v>
+        <v>1.019812820934355</v>
       </c>
       <c r="D7">
-        <v>1.015154905019637</v>
+        <v>1.025108282956336</v>
       </c>
       <c r="E7">
-        <v>1.002926242496136</v>
+        <v>1.02087172120105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043371920625243</v>
+        <v>1.027578076654849</v>
       </c>
       <c r="J7">
-        <v>1.015908913469177</v>
+        <v>1.024421304216371</v>
       </c>
       <c r="K7">
-        <v>1.025070859595064</v>
+        <v>1.027619408163696</v>
       </c>
       <c r="L7">
-        <v>1.012986488545463</v>
+        <v>1.023393853141069</v>
       </c>
       <c r="N7">
-        <v>1.017351620652683</v>
+        <v>1.025876099971125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9906192422826428</v>
+        <v>1.018602778697911</v>
       </c>
       <c r="D8">
-        <v>1.010856407010696</v>
+        <v>1.024216034883061</v>
       </c>
       <c r="E8">
-        <v>0.9983224481581778</v>
+        <v>1.019847267031813</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041858349068215</v>
+        <v>1.027390765068835</v>
       </c>
       <c r="J8">
-        <v>1.012503104574069</v>
+        <v>1.023689289578679</v>
       </c>
       <c r="K8">
-        <v>1.02189130235046</v>
+        <v>1.026980892936636</v>
       </c>
       <c r="L8">
-        <v>1.009525191001775</v>
+        <v>1.022624698360698</v>
       </c>
       <c r="N8">
-        <v>1.013940975118294</v>
+        <v>1.025143045788683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9798844794358186</v>
+        <v>1.016469452398451</v>
       </c>
       <c r="D9">
-        <v>1.002890904015225</v>
+        <v>1.022638231884035</v>
       </c>
       <c r="E9">
-        <v>0.9898535535508713</v>
+        <v>1.018044378008663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038926901874961</v>
+        <v>1.027044387154979</v>
       </c>
       <c r="J9">
-        <v>1.006168127819973</v>
+        <v>1.022393800020861</v>
       </c>
       <c r="K9">
-        <v>1.015937251800536</v>
+        <v>1.025845022556851</v>
       </c>
       <c r="L9">
-        <v>1.003113423174369</v>
+        <v>1.021266663828438</v>
       </c>
       <c r="N9">
-        <v>1.007597001970575</v>
+        <v>1.023845716487099</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9723444303213625</v>
+        <v>1.015046564942677</v>
       </c>
       <c r="D10">
-        <v>0.9972941117030741</v>
+        <v>1.021582724231355</v>
       </c>
       <c r="E10">
-        <v>0.983943533499068</v>
+        <v>1.016844098516479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036783995146598</v>
+        <v>1.026802550850059</v>
       </c>
       <c r="J10">
-        <v>1.001699950844622</v>
+        <v>1.021526445035799</v>
       </c>
       <c r="K10">
-        <v>1.011712394272381</v>
+        <v>1.025080637452521</v>
       </c>
       <c r="L10">
-        <v>0.9986088729593366</v>
+        <v>1.020359564662427</v>
       </c>
       <c r="N10">
-        <v>1.003122479671412</v>
+        <v>1.022977129758471</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9689793400354821</v>
+        <v>1.014430290770159</v>
       </c>
       <c r="D11">
-        <v>0.9947969721896235</v>
+        <v>1.021124833331282</v>
       </c>
       <c r="E11">
-        <v>0.9813158617417472</v>
+        <v>1.016324771183726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03580869758328</v>
+        <v>1.026695253481622</v>
       </c>
       <c r="J11">
-        <v>0.9997020834092577</v>
+        <v>1.02115000656751</v>
       </c>
       <c r="K11">
-        <v>1.009817681593015</v>
+        <v>1.024747971992795</v>
       </c>
       <c r="L11">
-        <v>0.9965989500338032</v>
+        <v>1.019966380145436</v>
       </c>
       <c r="N11">
-        <v>1.00112177503513</v>
+        <v>1.022600156704379</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9677134910549616</v>
+        <v>1.014201356663806</v>
       </c>
       <c r="D12">
-        <v>0.9938578243062982</v>
+        <v>1.020954626140263</v>
       </c>
       <c r="E12">
-        <v>0.9803289756545045</v>
+        <v>1.016131931506012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035439060085186</v>
+        <v>1.026655011494061</v>
       </c>
       <c r="J12">
-        <v>0.9989500399522323</v>
+        <v>1.021010051078788</v>
       </c>
       <c r="K12">
-        <v>1.009103652421374</v>
+        <v>1.024624153706837</v>
       </c>
       <c r="L12">
-        <v>0.9958430006805011</v>
+        <v>1.019820274107633</v>
       </c>
       <c r="N12">
-        <v>1.000368663590136</v>
+        <v>1.022460002462809</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9679857540366347</v>
+        <v>1.014250464809797</v>
       </c>
       <c r="D13">
-        <v>0.994059808486271</v>
+        <v>1.020991141844759</v>
       </c>
       <c r="E13">
-        <v>0.9805411663361728</v>
+        <v>1.016173293462756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035518686184479</v>
+        <v>1.026663661036206</v>
       </c>
       <c r="J13">
-        <v>0.9991118137493286</v>
+        <v>1.021040077850614</v>
       </c>
       <c r="K13">
-        <v>1.009257285197211</v>
+        <v>1.024650724513404</v>
       </c>
       <c r="L13">
-        <v>0.9960055861287523</v>
+        <v>1.019851617039155</v>
       </c>
       <c r="N13">
-        <v>1.000530667124579</v>
+        <v>1.022490071876096</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9688750341578476</v>
+        <v>1.014411367458804</v>
       </c>
       <c r="D14">
-        <v>0.9947195817348902</v>
+        <v>1.021110766516329</v>
       </c>
       <c r="E14">
-        <v>0.9812345100993357</v>
+        <v>1.01630882973148</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035778295038428</v>
+        <v>1.026691934956114</v>
       </c>
       <c r="J14">
-        <v>0.9996401249707784</v>
+        <v>1.021138440439163</v>
       </c>
       <c r="K14">
-        <v>1.009758871410855</v>
+        <v>1.024737742259148</v>
       </c>
       <c r="L14">
-        <v>0.996536656959133</v>
+        <v>1.01995430418905</v>
       </c>
       <c r="N14">
-        <v>1.001059728608562</v>
+        <v>1.022588574150803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9694208149523661</v>
+        <v>1.014510501940987</v>
       </c>
       <c r="D15">
-        <v>0.9951245363976102</v>
+        <v>1.021184454555114</v>
       </c>
       <c r="E15">
-        <v>0.9816602471113238</v>
+        <v>1.016392346302831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035937264535638</v>
+        <v>1.026709304196541</v>
       </c>
       <c r="J15">
-        <v>0.9999643024919734</v>
+        <v>1.021199027746615</v>
       </c>
       <c r="K15">
-        <v>1.010066543667869</v>
+        <v>1.024791323468656</v>
       </c>
       <c r="L15">
-        <v>0.9968626111040443</v>
+        <v>1.020017565236184</v>
       </c>
       <c r="N15">
-        <v>1.001384366499021</v>
+        <v>1.022649247499182</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9725655780033026</v>
+        <v>1.01508746184072</v>
       </c>
       <c r="D16">
-        <v>0.9974582418294567</v>
+        <v>1.02161309517626</v>
       </c>
       <c r="E16">
-        <v>0.9841164324610358</v>
+        <v>1.016878573132054</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036847703035714</v>
+        <v>1.026809617515564</v>
       </c>
       <c r="J16">
-        <v>1.001831174083337</v>
+        <v>1.021551409808405</v>
       </c>
       <c r="K16">
-        <v>1.011836727469017</v>
+        <v>1.02510268002937</v>
       </c>
       <c r="L16">
-        <v>0.9987409755340966</v>
+        <v>1.020385650583772</v>
       </c>
       <c r="N16">
-        <v>1.003253889262177</v>
+        <v>1.023002129983917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9745107974715833</v>
+        <v>1.015449332724244</v>
       </c>
       <c r="D17">
-        <v>0.9989020232532617</v>
+        <v>1.021881743806143</v>
       </c>
       <c r="E17">
-        <v>0.9856383942959103</v>
+        <v>1.017183678804373</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037405937001389</v>
+        <v>1.026871851026292</v>
       </c>
       <c r="J17">
-        <v>1.002984997939179</v>
+        <v>1.021772218028952</v>
       </c>
       <c r="K17">
-        <v>1.01292933140626</v>
+        <v>1.025297536345466</v>
       </c>
       <c r="L17">
-        <v>0.9999030091578698</v>
+        <v>1.020616433174083</v>
       </c>
       <c r="N17">
-        <v>1.00440935168024</v>
+        <v>1.023223251777465</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9756358040161852</v>
+        <v>1.015660390928257</v>
       </c>
       <c r="D18">
-        <v>0.9997370839425843</v>
+        <v>1.022038359982619</v>
       </c>
       <c r="E18">
-        <v>0.9865195494336452</v>
+        <v>1.017361680445129</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037726989142317</v>
+        <v>1.026907901735118</v>
       </c>
       <c r="J18">
-        <v>1.003651947033127</v>
+        <v>1.021900927913351</v>
       </c>
       <c r="K18">
-        <v>1.013560357203855</v>
+        <v>1.025411030406618</v>
       </c>
       <c r="L18">
-        <v>1.000575102092287</v>
+        <v>1.02075100565172</v>
       </c>
       <c r="N18">
-        <v>1.005077247918401</v>
+        <v>1.023352144444663</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9760177974654464</v>
+        <v>1.015732353760437</v>
       </c>
       <c r="D19">
-        <v>1.000020633844965</v>
+        <v>1.022091748094493</v>
       </c>
       <c r="E19">
-        <v>0.9868189005408871</v>
+        <v>1.017422380923675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037835693992914</v>
+        <v>1.026920151829983</v>
       </c>
       <c r="J19">
-        <v>1.003878345634731</v>
+        <v>1.021944800412823</v>
       </c>
       <c r="K19">
-        <v>1.013774469614278</v>
+        <v>1.02544970137978</v>
       </c>
       <c r="L19">
-        <v>1.000803314370934</v>
+        <v>1.020796884726364</v>
       </c>
       <c r="N19">
-        <v>1.005303968031988</v>
+        <v>1.023396079248116</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9743030934834439</v>
+        <v>1.01541050894483</v>
       </c>
       <c r="D20">
-        <v>0.9987478544170599</v>
+        <v>1.021852928824224</v>
       </c>
       <c r="E20">
-        <v>0.9854757865641722</v>
+        <v>1.017150939844709</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037346516782519</v>
+        <v>1.026865199714017</v>
       </c>
       <c r="J20">
-        <v>1.002861833292173</v>
+        <v>1.021748536059155</v>
       </c>
       <c r="K20">
-        <v>1.012812757086594</v>
+        <v>1.025276646889304</v>
       </c>
       <c r="L20">
-        <v>0.9997789268202132</v>
+        <v>1.020591676423659</v>
       </c>
       <c r="N20">
-        <v>1.004286012125308</v>
+        <v>1.023199536176554</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9686136095248095</v>
+        <v>1.014363986252301</v>
       </c>
       <c r="D21">
-        <v>0.9945256195765932</v>
+        <v>1.021075543502177</v>
       </c>
       <c r="E21">
-        <v>0.9810306417875426</v>
+        <v>1.016268915967339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035702052181037</v>
+        <v>1.026683619667659</v>
       </c>
       <c r="J21">
-        <v>0.999484828952621</v>
+        <v>1.021109478675319</v>
       </c>
       <c r="K21">
-        <v>1.009611453331917</v>
+        <v>1.024712124636128</v>
       </c>
       <c r="L21">
-        <v>0.9963805323690325</v>
+        <v>1.019924067025775</v>
       </c>
       <c r="N21">
-        <v>1.000904212052246</v>
+        <v>1.022559571257933</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9649439171243027</v>
+        <v>1.013705866452491</v>
       </c>
       <c r="D22">
-        <v>0.9918035348916264</v>
+        <v>1.020586041492744</v>
       </c>
       <c r="E22">
-        <v>0.9781727182302826</v>
+        <v>1.015714709670309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034625344210723</v>
+        <v>1.026567214573774</v>
       </c>
       <c r="J22">
-        <v>0.9973037697437749</v>
+        <v>1.020706929253519</v>
       </c>
       <c r="K22">
-        <v>1.007539133033163</v>
+        <v>1.024355732409183</v>
       </c>
       <c r="L22">
-        <v>0.9941893436494558</v>
+        <v>1.019503968986966</v>
       </c>
       <c r="N22">
-        <v>0.9987200554891522</v>
+        <v>1.02215645016978</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9668983583388615</v>
+        <v>1.014054760223465</v>
       </c>
       <c r="D23">
-        <v>0.9932531382696673</v>
+        <v>1.02084560439103</v>
       </c>
       <c r="E23">
-        <v>0.9796939300170417</v>
+        <v>1.016008470638415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035200268520579</v>
+        <v>1.026629135054783</v>
       </c>
       <c r="J23">
-        <v>0.9984656334177501</v>
+        <v>1.020920398975989</v>
       </c>
       <c r="K23">
-        <v>1.008643505882349</v>
+        <v>1.024544800185112</v>
       </c>
       <c r="L23">
-        <v>0.9953562564371989</v>
+        <v>1.019726703330257</v>
       </c>
       <c r="N23">
-        <v>0.9998835691428121</v>
+        <v>1.022370223043741</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9743969756015864</v>
+        <v>1.015428051785808</v>
       </c>
       <c r="D24">
-        <v>0.9988175384960956</v>
+        <v>1.021865949327775</v>
       </c>
       <c r="E24">
-        <v>0.9855492822916185</v>
+        <v>1.017165733051983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037373380283905</v>
+        <v>1.026868205925281</v>
       </c>
       <c r="J24">
-        <v>1.002917504778194</v>
+        <v>1.021759237180948</v>
       </c>
       <c r="K24">
-        <v>1.012865451353149</v>
+        <v>1.02528608643701</v>
       </c>
       <c r="L24">
-        <v>0.9998350118747095</v>
+        <v>1.020602863054416</v>
       </c>
       <c r="N24">
-        <v>1.004341762671225</v>
+        <v>1.023210252495167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9827243497014592</v>
+        <v>1.017021090411649</v>
       </c>
       <c r="D25">
-        <v>1.004998843598794</v>
+        <v>1.023046779788629</v>
       </c>
       <c r="E25">
-        <v>0.9920876227552896</v>
+        <v>1.018510183636503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039717149871633</v>
+        <v>1.027135862007552</v>
       </c>
       <c r="J25">
-        <v>1.007847431202878</v>
+        <v>1.022729370841061</v>
       </c>
       <c r="K25">
-        <v>1.017520051440595</v>
+        <v>1.026139935700584</v>
       </c>
       <c r="L25">
-        <v>1.004810022693718</v>
+        <v>1.021618060051877</v>
       </c>
       <c r="N25">
-        <v>1.009278690156902</v>
+        <v>1.024181763856354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_129/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01829118917108</v>
+        <v>0.989092465531956</v>
       </c>
       <c r="D2">
-        <v>1.023985953754433</v>
+        <v>1.009724074787397</v>
       </c>
       <c r="E2">
-        <v>1.019583685794839</v>
+        <v>0.9971138986986608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027341434458993</v>
+        <v>1.041451126672861</v>
       </c>
       <c r="J2">
-        <v>1.023500457630093</v>
+        <v>1.011604386559305</v>
       </c>
       <c r="K2">
-        <v>1.026815782312966</v>
+        <v>1.021049579920329</v>
       </c>
       <c r="L2">
-        <v>1.022426501826416</v>
+        <v>1.008613588476413</v>
       </c>
       <c r="N2">
-        <v>1.024953945677072</v>
+        <v>1.013040980820864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01921308746259</v>
+        <v>0.9935700680005668</v>
       </c>
       <c r="D3">
-        <v>1.024666311906729</v>
+        <v>1.013043998005775</v>
       </c>
       <c r="E3">
-        <v>1.020363800528458</v>
+        <v>1.000662138178495</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027486096304845</v>
+        <v>1.042635244484929</v>
       </c>
       <c r="J3">
-        <v>1.024058758255928</v>
+        <v>1.014237567563626</v>
       </c>
       <c r="K3">
-        <v>1.027303480658399</v>
+        <v>1.023512655175789</v>
       </c>
       <c r="L3">
-        <v>1.023012744025828</v>
+        <v>1.011286553828001</v>
       </c>
       <c r="N3">
-        <v>1.025513039153833</v>
+        <v>1.015677901244241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019809471143432</v>
+        <v>0.9964035148696713</v>
       </c>
       <c r="D4">
-        <v>1.025105815754036</v>
+        <v>1.015143220765229</v>
       </c>
       <c r="E4">
-        <v>1.020868883288441</v>
+        <v>1.002913692049865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027577567650423</v>
+        <v>1.043367879690308</v>
       </c>
       <c r="J4">
-        <v>1.024419280685079</v>
+        <v>1.015899668683478</v>
       </c>
       <c r="K4">
-        <v>1.027617646555353</v>
+        <v>1.025062252438575</v>
       </c>
       <c r="L4">
-        <v>1.023391725065711</v>
+        <v>1.01297707811967</v>
       </c>
       <c r="N4">
-        <v>1.025874073566186</v>
+        <v>1.017342362738329</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020060154882545</v>
+        <v>0.9975799357777987</v>
       </c>
       <c r="D5">
-        <v>1.025290406023527</v>
+        <v>1.016014337135906</v>
       </c>
       <c r="E5">
-        <v>1.021081289651895</v>
+        <v>1.003849961949494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027615510338181</v>
+        <v>1.043667994277878</v>
       </c>
       <c r="J5">
-        <v>1.024570667198113</v>
+        <v>1.016588711729433</v>
       </c>
       <c r="K5">
-        <v>1.027749383663829</v>
+        <v>1.025703397393635</v>
       </c>
       <c r="L5">
-        <v>1.023550962170415</v>
+        <v>1.013678702501785</v>
       </c>
       <c r="N5">
-        <v>1.026025675065433</v>
+        <v>1.018032384304444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020102243648351</v>
+        <v>0.997776611329095</v>
       </c>
       <c r="D6">
-        <v>1.025321389107824</v>
+        <v>1.016159942404866</v>
       </c>
       <c r="E6">
-        <v>1.021116957654372</v>
+        <v>1.004006572466954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02762185104137</v>
+        <v>1.043717926674132</v>
       </c>
       <c r="J6">
-        <v>1.024596075242659</v>
+        <v>1.016703844149464</v>
       </c>
       <c r="K6">
-        <v>1.02777148303271</v>
+        <v>1.025810451711919</v>
       </c>
       <c r="L6">
-        <v>1.023577693675258</v>
+        <v>1.013795984199085</v>
       </c>
       <c r="N6">
-        <v>1.026051119192316</v>
+        <v>1.018147680225717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019812820934355</v>
+        <v>0.9964192915809837</v>
       </c>
       <c r="D7">
-        <v>1.025108282956336</v>
+        <v>1.015154905019636</v>
       </c>
       <c r="E7">
-        <v>1.02087172120105</v>
+        <v>1.002926242496136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027578076654849</v>
+        <v>1.043371920625243</v>
       </c>
       <c r="J7">
-        <v>1.024421304216371</v>
+        <v>1.015908913469176</v>
       </c>
       <c r="K7">
-        <v>1.027619408163696</v>
+        <v>1.025070859595063</v>
       </c>
       <c r="L7">
-        <v>1.023393853141069</v>
+        <v>1.012986488545463</v>
       </c>
       <c r="N7">
-        <v>1.025876099971125</v>
+        <v>1.017351620652684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018602778697911</v>
+        <v>0.9906192422826431</v>
       </c>
       <c r="D8">
-        <v>1.024216034883061</v>
+        <v>1.010856407010697</v>
       </c>
       <c r="E8">
-        <v>1.019847267031813</v>
+        <v>0.9983224481581781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027390765068835</v>
+        <v>1.041858349068215</v>
       </c>
       <c r="J8">
-        <v>1.023689289578679</v>
+        <v>1.012503104574069</v>
       </c>
       <c r="K8">
-        <v>1.026980892936636</v>
+        <v>1.02189130235046</v>
       </c>
       <c r="L8">
-        <v>1.022624698360698</v>
+        <v>1.009525191001775</v>
       </c>
       <c r="N8">
-        <v>1.025143045788683</v>
+        <v>1.013940975118294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016469452398451</v>
+        <v>0.9798844794358196</v>
       </c>
       <c r="D9">
-        <v>1.022638231884035</v>
+        <v>1.002890904015226</v>
       </c>
       <c r="E9">
-        <v>1.018044378008663</v>
+        <v>0.9898535535508719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027044387154979</v>
+        <v>1.038926901874961</v>
       </c>
       <c r="J9">
-        <v>1.022393800020861</v>
+        <v>1.006168127819974</v>
       </c>
       <c r="K9">
-        <v>1.025845022556851</v>
+        <v>1.015937251800537</v>
       </c>
       <c r="L9">
-        <v>1.021266663828438</v>
+        <v>1.00311342317437</v>
       </c>
       <c r="N9">
-        <v>1.023845716487099</v>
+        <v>1.007597001970576</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015046564942677</v>
+        <v>0.9723444303213613</v>
       </c>
       <c r="D10">
-        <v>1.021582724231355</v>
+        <v>0.9972941117030731</v>
       </c>
       <c r="E10">
-        <v>1.016844098516479</v>
+        <v>0.9839435334990672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026802550850059</v>
+        <v>1.036783995146598</v>
       </c>
       <c r="J10">
-        <v>1.021526445035799</v>
+        <v>1.001699950844621</v>
       </c>
       <c r="K10">
-        <v>1.025080637452521</v>
+        <v>1.01171239427238</v>
       </c>
       <c r="L10">
-        <v>1.020359564662427</v>
+        <v>0.9986088729593356</v>
       </c>
       <c r="N10">
-        <v>1.022977129758471</v>
+        <v>1.00312247967141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014430290770159</v>
+        <v>0.9689793400354819</v>
       </c>
       <c r="D11">
-        <v>1.021124833331282</v>
+        <v>0.994796972189623</v>
       </c>
       <c r="E11">
-        <v>1.016324771183726</v>
+        <v>0.9813158617417467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026695253481622</v>
+        <v>1.03580869758328</v>
       </c>
       <c r="J11">
-        <v>1.02115000656751</v>
+        <v>0.9997020834092571</v>
       </c>
       <c r="K11">
-        <v>1.024747971992795</v>
+        <v>1.009817681593015</v>
       </c>
       <c r="L11">
-        <v>1.019966380145436</v>
+        <v>0.9965989500338026</v>
       </c>
       <c r="N11">
-        <v>1.022600156704379</v>
+        <v>1.00112177503513</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014201356663806</v>
+        <v>0.967713491054962</v>
       </c>
       <c r="D12">
-        <v>1.020954626140263</v>
+        <v>0.9938578243062984</v>
       </c>
       <c r="E12">
-        <v>1.016131931506012</v>
+        <v>0.9803289756545049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026655011494061</v>
+        <v>1.035439060085186</v>
       </c>
       <c r="J12">
-        <v>1.021010051078788</v>
+        <v>0.9989500399522329</v>
       </c>
       <c r="K12">
-        <v>1.024624153706837</v>
+        <v>1.009103652421375</v>
       </c>
       <c r="L12">
-        <v>1.019820274107633</v>
+        <v>0.9958430006805015</v>
       </c>
       <c r="N12">
-        <v>1.022460002462809</v>
+        <v>1.000368663590136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014250464809797</v>
+        <v>0.9679857540366352</v>
       </c>
       <c r="D13">
-        <v>1.020991141844759</v>
+        <v>0.9940598084862715</v>
       </c>
       <c r="E13">
-        <v>1.016173293462756</v>
+        <v>0.9805411663361734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026663661036206</v>
+        <v>1.035518686184479</v>
       </c>
       <c r="J13">
-        <v>1.021040077850614</v>
+        <v>0.9991118137493291</v>
       </c>
       <c r="K13">
-        <v>1.024650724513404</v>
+        <v>1.009257285197212</v>
       </c>
       <c r="L13">
-        <v>1.019851617039155</v>
+        <v>0.9960055861287529</v>
       </c>
       <c r="N13">
-        <v>1.022490071876096</v>
+        <v>1.00053066712458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014411367458804</v>
+        <v>0.968875034157848</v>
       </c>
       <c r="D14">
-        <v>1.021110766516329</v>
+        <v>0.9947195817348904</v>
       </c>
       <c r="E14">
-        <v>1.01630882973148</v>
+        <v>0.9812345100993359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026691934956114</v>
+        <v>1.035778295038428</v>
       </c>
       <c r="J14">
-        <v>1.021138440439163</v>
+        <v>0.9996401249707789</v>
       </c>
       <c r="K14">
-        <v>1.024737742259148</v>
+        <v>1.009758871410856</v>
       </c>
       <c r="L14">
-        <v>1.01995430418905</v>
+        <v>0.9965366569591332</v>
       </c>
       <c r="N14">
-        <v>1.022588574150803</v>
+        <v>1.001059728608562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014510501940987</v>
+        <v>0.9694208149523664</v>
       </c>
       <c r="D15">
-        <v>1.021184454555114</v>
+        <v>0.9951245363976107</v>
       </c>
       <c r="E15">
-        <v>1.016392346302831</v>
+        <v>0.981660247111324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026709304196541</v>
+        <v>1.035937264535639</v>
       </c>
       <c r="J15">
-        <v>1.021199027746615</v>
+        <v>0.9999643024919738</v>
       </c>
       <c r="K15">
-        <v>1.024791323468656</v>
+        <v>1.01006654366787</v>
       </c>
       <c r="L15">
-        <v>1.020017565236184</v>
+        <v>0.9968626111040446</v>
       </c>
       <c r="N15">
-        <v>1.022649247499182</v>
+        <v>1.001384366499021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01508746184072</v>
+        <v>0.9725655780033022</v>
       </c>
       <c r="D16">
-        <v>1.02161309517626</v>
+        <v>0.9974582418294567</v>
       </c>
       <c r="E16">
-        <v>1.016878573132054</v>
+        <v>0.9841164324610353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026809617515564</v>
+        <v>1.036847703035714</v>
       </c>
       <c r="J16">
-        <v>1.021551409808405</v>
+        <v>1.001831174083337</v>
       </c>
       <c r="K16">
-        <v>1.02510268002937</v>
+        <v>1.011836727469016</v>
       </c>
       <c r="L16">
-        <v>1.020385650583772</v>
+        <v>0.9987409755340962</v>
       </c>
       <c r="N16">
-        <v>1.023002129983917</v>
+        <v>1.003253889262177</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015449332724244</v>
+        <v>0.9745107974715833</v>
       </c>
       <c r="D17">
-        <v>1.021881743806143</v>
+        <v>0.9989020232532617</v>
       </c>
       <c r="E17">
-        <v>1.017183678804373</v>
+        <v>0.9856383942959103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026871851026292</v>
+        <v>1.03740593700139</v>
       </c>
       <c r="J17">
-        <v>1.021772218028952</v>
+        <v>1.002984997939179</v>
       </c>
       <c r="K17">
-        <v>1.025297536345466</v>
+        <v>1.01292933140626</v>
       </c>
       <c r="L17">
-        <v>1.020616433174083</v>
+        <v>0.9999030091578698</v>
       </c>
       <c r="N17">
-        <v>1.023223251777465</v>
+        <v>1.00440935168024</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015660390928257</v>
+        <v>0.975635804016185</v>
       </c>
       <c r="D18">
-        <v>1.022038359982619</v>
+        <v>0.999737083942584</v>
       </c>
       <c r="E18">
-        <v>1.017361680445129</v>
+        <v>0.9865195494336446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026907901735118</v>
+        <v>1.037726989142317</v>
       </c>
       <c r="J18">
-        <v>1.021900927913351</v>
+        <v>1.003651947033126</v>
       </c>
       <c r="K18">
-        <v>1.025411030406618</v>
+        <v>1.013560357203855</v>
       </c>
       <c r="L18">
-        <v>1.02075100565172</v>
+        <v>1.000575102092286</v>
       </c>
       <c r="N18">
-        <v>1.023352144444663</v>
+        <v>1.005077247918401</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015732353760437</v>
+        <v>0.9760177974654454</v>
       </c>
       <c r="D19">
-        <v>1.022091748094493</v>
+        <v>1.000020633844965</v>
       </c>
       <c r="E19">
-        <v>1.017422380923675</v>
+        <v>0.9868189005408862</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026920151829983</v>
+        <v>1.037835693992914</v>
       </c>
       <c r="J19">
-        <v>1.021944800412823</v>
+        <v>1.00387834563473</v>
       </c>
       <c r="K19">
-        <v>1.02544970137978</v>
+        <v>1.013774469614277</v>
       </c>
       <c r="L19">
-        <v>1.020796884726364</v>
+        <v>1.000803314370933</v>
       </c>
       <c r="N19">
-        <v>1.023396079248116</v>
+        <v>1.005303968031987</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01541050894483</v>
+        <v>0.9743030934834455</v>
       </c>
       <c r="D20">
-        <v>1.021852928824224</v>
+        <v>0.9987478544170615</v>
       </c>
       <c r="E20">
-        <v>1.017150939844709</v>
+        <v>0.9854757865641735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026865199714017</v>
+        <v>1.03734651678252</v>
       </c>
       <c r="J20">
-        <v>1.021748536059155</v>
+        <v>1.002861833292174</v>
       </c>
       <c r="K20">
-        <v>1.025276646889304</v>
+        <v>1.012812757086595</v>
       </c>
       <c r="L20">
-        <v>1.020591676423659</v>
+        <v>0.9997789268202144</v>
       </c>
       <c r="N20">
-        <v>1.023199536176554</v>
+        <v>1.00428601212531</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014363986252301</v>
+        <v>0.9686136095248107</v>
       </c>
       <c r="D21">
-        <v>1.021075543502177</v>
+        <v>0.9945256195765944</v>
       </c>
       <c r="E21">
-        <v>1.016268915967339</v>
+        <v>0.9810306417875433</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026683619667659</v>
+        <v>1.035702052181037</v>
       </c>
       <c r="J21">
-        <v>1.021109478675319</v>
+        <v>0.999484828952622</v>
       </c>
       <c r="K21">
-        <v>1.024712124636128</v>
+        <v>1.009611453331918</v>
       </c>
       <c r="L21">
-        <v>1.019924067025775</v>
+        <v>0.9963805323690331</v>
       </c>
       <c r="N21">
-        <v>1.022559571257933</v>
+        <v>1.000904212052247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013705866452491</v>
+        <v>0.9649439171243032</v>
       </c>
       <c r="D22">
-        <v>1.020586041492744</v>
+        <v>0.9918035348916273</v>
       </c>
       <c r="E22">
-        <v>1.015714709670309</v>
+        <v>0.978172718230283</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026567214573774</v>
+        <v>1.034625344210723</v>
       </c>
       <c r="J22">
-        <v>1.020706929253519</v>
+        <v>0.9973037697437753</v>
       </c>
       <c r="K22">
-        <v>1.024355732409183</v>
+        <v>1.007539133033164</v>
       </c>
       <c r="L22">
-        <v>1.019503968986966</v>
+        <v>0.9941893436494561</v>
       </c>
       <c r="N22">
-        <v>1.02215645016978</v>
+        <v>0.9987200554891529</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014054760223465</v>
+        <v>0.9668983583388613</v>
       </c>
       <c r="D23">
-        <v>1.02084560439103</v>
+        <v>0.9932531382696669</v>
       </c>
       <c r="E23">
-        <v>1.016008470638415</v>
+        <v>0.9796939300170415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026629135054783</v>
+        <v>1.035200268520579</v>
       </c>
       <c r="J23">
-        <v>1.020920398975989</v>
+        <v>0.9984656334177499</v>
       </c>
       <c r="K23">
-        <v>1.024544800185112</v>
+        <v>1.008643505882349</v>
       </c>
       <c r="L23">
-        <v>1.019726703330257</v>
+        <v>0.9953562564371985</v>
       </c>
       <c r="N23">
-        <v>1.022370223043741</v>
+        <v>0.9998835691428118</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015428051785808</v>
+        <v>0.9743969756015852</v>
       </c>
       <c r="D24">
-        <v>1.021865949327775</v>
+        <v>0.9988175384960947</v>
       </c>
       <c r="E24">
-        <v>1.017165733051983</v>
+        <v>0.9855492822916176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026868205925281</v>
+        <v>1.037373380283905</v>
       </c>
       <c r="J24">
-        <v>1.021759237180948</v>
+        <v>1.002917504778194</v>
       </c>
       <c r="K24">
-        <v>1.02528608643701</v>
+        <v>1.012865451353148</v>
       </c>
       <c r="L24">
-        <v>1.020602863054416</v>
+        <v>0.9998350118747087</v>
       </c>
       <c r="N24">
-        <v>1.023210252495167</v>
+        <v>1.004341762671224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017021090411649</v>
+        <v>0.9827243497014599</v>
       </c>
       <c r="D25">
-        <v>1.023046779788629</v>
+        <v>1.004998843598795</v>
       </c>
       <c r="E25">
-        <v>1.018510183636503</v>
+        <v>0.9920876227552902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027135862007552</v>
+        <v>1.039717149871634</v>
       </c>
       <c r="J25">
-        <v>1.022729370841061</v>
+        <v>1.007847431202878</v>
       </c>
       <c r="K25">
-        <v>1.026139935700584</v>
+        <v>1.017520051440596</v>
       </c>
       <c r="L25">
-        <v>1.021618060051877</v>
+        <v>1.004810022693718</v>
       </c>
       <c r="N25">
-        <v>1.024181763856354</v>
+        <v>1.009278690156902</v>
       </c>
     </row>
   </sheetData>
